--- a/mmo_excel/xlsx/mapMonster.xlsx
+++ b/mmo_excel/xlsx/mapMonster.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\mmo_demo\mmo_excel\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0B4AD5-2253-464A-996B-A3DA3DD41A12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{655AF38B-6CF8-4512-89F4-7925A9EC87A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11685" yWindow="2715" windowWidth="21600" windowHeight="13125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -413,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -674,6 +674,305 @@
         <v>62</v>
       </c>
     </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>201</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>45</v>
+      </c>
+      <c r="F12">
+        <v>27</v>
+      </c>
+      <c r="G12">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>202</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>45</v>
+      </c>
+      <c r="F13">
+        <v>20</v>
+      </c>
+      <c r="G13">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>203</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>7</v>
+      </c>
+      <c r="E14">
+        <v>26</v>
+      </c>
+      <c r="F14">
+        <v>19</v>
+      </c>
+      <c r="G14">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>204</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>7</v>
+      </c>
+      <c r="E15">
+        <v>24</v>
+      </c>
+      <c r="F15">
+        <v>12</v>
+      </c>
+      <c r="G15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>205</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>26</v>
+      </c>
+      <c r="F16">
+        <v>6</v>
+      </c>
+      <c r="G16">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>206</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>37</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+      <c r="F17">
+        <v>28</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>207</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>39</v>
+      </c>
+      <c r="E18">
+        <v>7</v>
+      </c>
+      <c r="F18">
+        <v>38</v>
+      </c>
+      <c r="G18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>208</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>40</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19">
+        <v>46</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>301</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>302</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>8</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>8</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>303</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>11</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>11</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>304</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>13</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>13</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>305</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>15</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>15</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
